--- a/template Excel/Accountting/PerformanceEvaluationAccounting.xlsx
+++ b/template Excel/Accountting/PerformanceEvaluationAccounting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Accountting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D594F4-F03B-4D9A-9CC9-EB662D8EAD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8B8E56-FE88-49DE-902B-C91A7087D146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11835" xr2:uid="{87630A71-1F4F-4FC5-A99F-515812BB1972}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{87630A71-1F4F-4FC5-A99F-515812BB1972}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -625,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -660,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -695,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -730,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -765,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -835,7 +835,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>

--- a/template Excel/Accountting/PerformanceEvaluationAccounting.xlsx
+++ b/template Excel/Accountting/PerformanceEvaluationAccounting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Accountting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8B8E56-FE88-49DE-902B-C91A7087D146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFEA6AE-57C0-4CEE-91F4-60829A6B3C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{87630A71-1F4F-4FC5-A99F-515812BB1972}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>PerformanceEvaluationAccountingId</t>
   </si>
@@ -44,9 +44,6 @@
     <t>EmployeeId</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>WorkPerformanceScore</t>
   </si>
   <si>
@@ -71,10 +68,7 @@
     <t>CostToRevenueRatio</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -118,12 +112,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -462,14 +459,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376FA5C5-B601-4C38-A2BD-F82186A3C10A}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" activeCellId="1" sqref="C2:C11 E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -488,31 +485,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -522,8 +519,8 @@
       <c r="B2" s="2">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
+      <c r="C2" s="3">
+        <v>45533</v>
       </c>
       <c r="D2" s="2">
         <v>85</v>
@@ -557,8 +554,8 @@
       <c r="B3" s="2">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
+      <c r="C3" s="3">
+        <v>45534</v>
       </c>
       <c r="D3" s="2">
         <v>78</v>
@@ -592,8 +589,8 @@
       <c r="B4" s="2">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+      <c r="C4" s="3">
+        <v>45535</v>
       </c>
       <c r="D4" s="2">
         <v>92</v>
@@ -627,8 +624,8 @@
       <c r="B5" s="2">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+      <c r="C5" s="3">
+        <v>45536</v>
       </c>
       <c r="D5" s="2">
         <v>80</v>
@@ -662,8 +659,8 @@
       <c r="B6" s="2">
         <v>35</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
+      <c r="C6" s="3">
+        <v>45537</v>
       </c>
       <c r="D6" s="2">
         <v>90</v>
@@ -697,8 +694,8 @@
       <c r="B7" s="2">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
+      <c r="C7" s="3">
+        <v>45538</v>
       </c>
       <c r="D7" s="2">
         <v>87</v>
@@ -732,8 +729,8 @@
       <c r="B8" s="2">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
+      <c r="C8" s="3">
+        <v>45539</v>
       </c>
       <c r="D8" s="2">
         <v>80</v>
@@ -767,8 +764,8 @@
       <c r="B9" s="2">
         <v>38</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
+      <c r="C9" s="3">
+        <v>45540</v>
       </c>
       <c r="D9" s="2">
         <v>94</v>
@@ -802,8 +799,8 @@
       <c r="B10" s="2">
         <v>39</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
+      <c r="C10" s="3">
+        <v>45541</v>
       </c>
       <c r="D10" s="2">
         <v>82</v>
@@ -837,8 +834,8 @@
       <c r="B11" s="2">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
+      <c r="C11" s="3">
+        <v>45542</v>
       </c>
       <c r="D11" s="2">
         <v>89</v>
